--- a/REGULAR/MAYORS OFFICE/DOLOT, JESUS JR..xlsx
+++ b/REGULAR/MAYORS OFFICE/DOLOT, JESUS JR..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="463">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1383,15 +1383,9 @@
     <t>5/7-9/2023</t>
   </si>
   <si>
-    <t>2/23,28, 3/1</t>
-  </si>
-  <si>
     <t>4/17,20/2023</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-1)</t>
   </si>
   <si>
@@ -1410,10 +1404,25 @@
     <t>UT(0-0-33)</t>
   </si>
   <si>
-    <t>4/21,26,29/2022</t>
-  </si>
-  <si>
     <t>UT(0-1-57)</t>
+  </si>
+  <si>
+    <t>9/25-29/2023</t>
+  </si>
+  <si>
+    <t>10/19,20/2023</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/21,29/2022</t>
+  </si>
+  <si>
+    <t>12/07,11,18/2023</t>
+  </si>
+  <si>
+    <t>12/14,20,27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -3871,7 +3880,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K1179" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K1183" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4249,12 +4258,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K1179"/>
+  <dimension ref="A2:K1183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A608" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="I626" sqref="I626"/>
+      <pane ySplit="3690" topLeftCell="A620" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K633" sqref="K633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4419,7 +4428,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.76099999999991041</v>
+        <v>0.51099999999991041</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4429,7 +4438,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>107.625</v>
+        <v>101.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17242,11 +17251,11 @@
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
@@ -17257,8 +17266,8 @@
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20" t="s">
-        <v>458</v>
+      <c r="K592" s="49">
+        <v>44677</v>
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
@@ -17268,7 +17277,7 @@
       </c>
       <c r="C593" s="13"/>
       <c r="D593" s="39">
-        <v>0.24399999999999999</v>
+        <v>2</v>
       </c>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
@@ -17279,26 +17288,24 @@
       <c r="H593" s="39"/>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="20"/>
+      <c r="K593" s="20" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A594" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="C594" s="13">
-        <v>1.25</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C594" s="13"/>
       <c r="D594" s="39">
-        <v>6.9000000000000006E-2</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G594" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
@@ -17307,82 +17314,84 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B595" s="20" t="s">
-        <v>122</v>
+        <v>455</v>
       </c>
       <c r="C595" s="13">
         <v>1.25</v>
       </c>
-      <c r="D595" s="39"/>
+      <c r="D595" s="39">
+        <v>6.9000000000000006E-2</v>
+      </c>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
       <c r="G595" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H595" s="39">
-        <v>3</v>
-      </c>
+      <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20" t="s">
-        <v>435</v>
-      </c>
+      <c r="K595" s="20"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" s="40"/>
+      <c r="A596" s="40">
+        <v>44713</v>
+      </c>
       <c r="B596" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C596" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="C596" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D596" s="39"/>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
-      <c r="G596" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G596" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H596" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="49">
-        <v>44720</v>
+      <c r="K596" s="20" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
-        <v>454</v>
+        <v>110</v>
       </c>
       <c r="C597" s="13"/>
-      <c r="D597" s="39">
-        <v>3</v>
-      </c>
+      <c r="D597" s="39"/>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
       <c r="G597" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H597" s="39"/>
+      <c r="H597" s="39">
+        <v>1</v>
+      </c>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="49" t="s">
-        <v>455</v>
+      <c r="K597" s="49">
+        <v>44720</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C598" s="13"/>
       <c r="D598" s="39">
-        <v>6.0000000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
@@ -17393,226 +17402,226 @@
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="49"/>
+      <c r="K598" s="49" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A599" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C599" s="13">
-        <v>1.25</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="C599" s="13"/>
       <c r="D599" s="39">
-        <v>1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
-      <c r="G599" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G599" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H599" s="39"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="49">
-        <v>44760</v>
-      </c>
+      <c r="K599" s="49"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A600" s="40"/>
+      <c r="A600" s="40">
+        <v>44743</v>
+      </c>
       <c r="B600" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C600" s="13"/>
-      <c r="D600" s="39"/>
+        <v>77</v>
+      </c>
+      <c r="C600" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D600" s="39">
+        <v>1</v>
+      </c>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
-      <c r="G600" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H600" s="39">
-        <v>1</v>
-      </c>
+      <c r="G600" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H600" s="39"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
       <c r="K600" s="49">
-        <v>44791</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C601" s="13"/>
-      <c r="D601" s="39">
-        <v>2.5000000000000008E-2</v>
-      </c>
+      <c r="D601" s="39"/>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
       <c r="G601" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H601" s="39"/>
+      <c r="H601" s="39">
+        <v>1</v>
+      </c>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="49"/>
+      <c r="K601" s="49">
+        <v>44791</v>
+      </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="C602" s="13">
-        <v>1.25</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C602" s="13"/>
       <c r="D602" s="39">
-        <v>1</v>
+        <v>2.5000000000000008E-2</v>
       </c>
       <c r="E602" s="9"/>
       <c r="F602" s="20"/>
-      <c r="G602" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G602" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H602" s="39"/>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="49">
-        <v>44781</v>
-      </c>
+      <c r="K602" s="49"/>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A603" s="40"/>
+      <c r="A603" s="40">
+        <v>44774</v>
+      </c>
       <c r="B603" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C603" s="13"/>
-      <c r="D603" s="39">
-        <v>1.4999999999999999E-2</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C603" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D603" s="39"/>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H603" s="39"/>
+      <c r="G603" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H603" s="39">
+        <v>1</v>
+      </c>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="49"/>
+      <c r="K603" s="49">
+        <v>44781</v>
+      </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C604" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D604" s="39"/>
+        <v>129</v>
+      </c>
+      <c r="C604" s="13"/>
+      <c r="D604" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
-      <c r="G604" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H604" s="39">
-        <v>1</v>
-      </c>
+      <c r="G604" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H604" s="39"/>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="49">
-        <v>44817</v>
-      </c>
+      <c r="K604" s="49"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="40"/>
+      <c r="A605" s="40">
+        <v>44805</v>
+      </c>
       <c r="B605" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="C605" s="13"/>
-      <c r="D605" s="39">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C605" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D605" s="39"/>
       <c r="E605" s="9"/>
       <c r="F605" s="20"/>
-      <c r="G605" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H605" s="39"/>
+      <c r="G605" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H605" s="39">
+        <v>1</v>
+      </c>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
       <c r="K605" s="49">
-        <v>44833</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C606" s="13">
-        <v>1.25</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C606" s="13"/>
       <c r="D606" s="39"/>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H606" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="20" t="s">
-        <v>438</v>
+      <c r="K606" s="49">
+        <v>44833</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" s="40"/>
+      <c r="A607" s="40">
+        <v>44835</v>
+      </c>
       <c r="B607" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C607" s="13"/>
-      <c r="D607" s="39">
-        <v>2</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C607" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D607" s="39"/>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H607" s="39"/>
+      <c r="G607" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H607" s="39">
+        <v>3</v>
+      </c>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
       <c r="K607" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
-        <v>453</v>
+        <v>84</v>
       </c>
       <c r="C608" s="13"/>
       <c r="D608" s="39">
-        <v>0.17700000000000002</v>
+        <v>2</v>
       </c>
       <c r="E608" s="9"/>
       <c r="F608" s="20"/>
@@ -17623,109 +17632,113 @@
       <c r="H608" s="39"/>
       <c r="I608" s="9"/>
       <c r="J608" s="11"/>
-      <c r="K608" s="20"/>
+      <c r="K608" s="20" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C609" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D609" s="39"/>
+        <v>451</v>
+      </c>
+      <c r="C609" s="13"/>
+      <c r="D609" s="39">
+        <v>0.17700000000000002</v>
+      </c>
       <c r="E609" s="9"/>
       <c r="F609" s="20"/>
-      <c r="G609" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H609" s="39">
-        <v>2</v>
-      </c>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="39"/>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="20" t="s">
-        <v>442</v>
-      </c>
+      <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B610" s="20" t="s">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="C610" s="13">
         <v>1.25</v>
       </c>
-      <c r="D610" s="39">
-        <v>4</v>
-      </c>
+      <c r="D610" s="39"/>
       <c r="E610" s="9"/>
       <c r="F610" s="20"/>
       <c r="G610" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H610" s="39"/>
+      <c r="H610" s="39">
+        <v>2</v>
+      </c>
       <c r="I610" s="9"/>
       <c r="J610" s="11"/>
       <c r="K610" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A611" s="40"/>
+      <c r="A611" s="40">
+        <v>44896</v>
+      </c>
       <c r="B611" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="C611" s="13"/>
+        <v>440</v>
+      </c>
+      <c r="C611" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D611" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E611" s="9"/>
       <c r="F611" s="20"/>
-      <c r="G611" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G611" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
-      <c r="K611" s="49">
-        <v>44907</v>
+      <c r="K611" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
-        <v>452</v>
+        <v>110</v>
       </c>
       <c r="C612" s="13"/>
-      <c r="D612" s="39">
-        <v>2E-3</v>
-      </c>
+      <c r="D612" s="39"/>
       <c r="E612" s="9"/>
       <c r="F612" s="20"/>
       <c r="G612" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H612" s="39"/>
+      <c r="H612" s="39">
+        <v>1</v>
+      </c>
       <c r="I612" s="9"/>
       <c r="J612" s="11"/>
-      <c r="K612" s="49"/>
+      <c r="K612" s="49">
+        <v>44907</v>
+      </c>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A613" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="B613" s="20"/>
+      <c r="A613" s="40"/>
+      <c r="B613" s="20" t="s">
+        <v>450</v>
+      </c>
       <c r="C613" s="13"/>
-      <c r="D613" s="39"/>
+      <c r="D613" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E613" s="9"/>
       <c r="F613" s="20"/>
       <c r="G613" s="13" t="str">
@@ -17735,40 +17748,32 @@
       <c r="H613" s="39"/>
       <c r="I613" s="9"/>
       <c r="J613" s="11"/>
-      <c r="K613" s="20"/>
+      <c r="K613" s="49"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B614" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C614" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A614" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="B614" s="20"/>
+      <c r="C614" s="13"/>
       <c r="D614" s="39"/>
       <c r="E614" s="9"/>
       <c r="F614" s="20"/>
-      <c r="G614" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H614" s="39">
-        <v>1</v>
-      </c>
+      <c r="G614" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H614" s="39"/>
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
-      <c r="K614" s="49">
-        <v>44942</v>
-      </c>
+      <c r="K614" s="20"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B615" s="20" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C615" s="13">
         <v>1.25</v>
@@ -17781,32 +17786,38 @@
         <v>1.25</v>
       </c>
       <c r="H615" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I615" s="9"/>
       <c r="J615" s="11"/>
-      <c r="K615" s="20" t="s">
-        <v>443</v>
+      <c r="K615" s="49">
+        <v>44942</v>
       </c>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="40"/>
+      <c r="A616" s="40">
+        <v>44958</v>
+      </c>
       <c r="B616" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="C616" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="C616" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D616" s="39"/>
       <c r="E616" s="9"/>
       <c r="F616" s="20"/>
-      <c r="G616" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H616" s="39"/>
+      <c r="G616" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H616" s="39">
+        <v>2</v>
+      </c>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
       <c r="K616" s="20" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
@@ -17902,7 +17913,7 @@
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
       <c r="K620" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
@@ -18020,13 +18031,15 @@
       <c r="B626" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C626" s="13"/>
+      <c r="C626" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D626" s="39"/>
       <c r="E626" s="9"/>
       <c r="F626" s="20"/>
-      <c r="G626" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G626" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H626" s="39">
         <v>1</v>
@@ -18038,10 +18051,10 @@
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A627" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B627" s="20"/>
+      <c r="A627" s="40"/>
+      <c r="B627" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="C627" s="13"/>
       <c r="D627" s="39"/>
       <c r="E627" s="9"/>
@@ -18050,16 +18063,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H627" s="39"/>
+      <c r="H627" s="39">
+        <v>5</v>
+      </c>
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
-      <c r="K627" s="20"/>
+      <c r="K627" s="49" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B628" s="20"/>
+      <c r="A628" s="40"/>
+      <c r="B628" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C628" s="13"/>
       <c r="D628" s="39"/>
       <c r="E628" s="9"/>
@@ -18068,34 +18085,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H628" s="39"/>
+      <c r="H628" s="39">
+        <v>1</v>
+      </c>
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
-      <c r="K628" s="20"/>
+      <c r="K628" s="49">
+        <v>45191</v>
+      </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B629" s="20"/>
-      <c r="C629" s="13"/>
-      <c r="D629" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B629" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C629" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D629" s="39">
+        <v>2</v>
+      </c>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G629" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="20"/>
+      <c r="K629" s="20" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B630" s="20"/>
+      <c r="A630" s="40"/>
+      <c r="B630" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C630" s="13"/>
       <c r="D630" s="39"/>
       <c r="E630" s="9"/>
@@ -18104,34 +18133,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H630" s="39"/>
+      <c r="H630" s="39">
+        <v>1</v>
+      </c>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
-      <c r="K630" s="20"/>
+      <c r="K630" s="49">
+        <v>45211</v>
+      </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B631" s="20"/>
-      <c r="C631" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B631" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C631" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D631" s="39"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G631" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H631" s="39"/>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
-      <c r="K631" s="20"/>
+      <c r="K631" s="49">
+        <v>45246</v>
+      </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B632" s="20"/>
+      <c r="A632" s="40"/>
+      <c r="B632" s="20" t="s">
+        <v>430</v>
+      </c>
       <c r="C632" s="13"/>
       <c r="D632" s="39"/>
       <c r="E632" s="9"/>
@@ -18143,15 +18182,21 @@
       <c r="H632" s="39"/>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
+      <c r="K632" s="49" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B633" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B633" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="C633" s="13"/>
-      <c r="D633" s="39"/>
+      <c r="D633" s="39">
+        <v>5</v>
+      </c>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
       <c r="G633" s="13" t="str">
@@ -18161,11 +18206,13 @@
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
+      <c r="K633" s="20" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18183,7 +18230,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18200,7 +18247,9 @@
       <c r="K635" s="20"/>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="40"/>
+      <c r="A636" s="40">
+        <v>45352</v>
+      </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
       <c r="D636" s="39"/>
@@ -18216,7 +18265,9 @@
       <c r="K636" s="20"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="40"/>
+      <c r="A637" s="40">
+        <v>45383</v>
+      </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
       <c r="D637" s="39"/>
@@ -18232,7 +18283,9 @@
       <c r="K637" s="20"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="40"/>
+      <c r="A638" s="40">
+        <v>45413</v>
+      </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
       <c r="D638" s="39"/>
@@ -18248,7 +18301,9 @@
       <c r="K638" s="20"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="40"/>
+      <c r="A639" s="40">
+        <v>45444</v>
+      </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
       <c r="D639" s="39"/>
@@ -26902,6 +26957,70 @@
       <c r="I1179" s="9"/>
       <c r="J1179" s="11"/>
       <c r="K1179" s="20"/>
+    </row>
+    <row r="1180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1180" s="40"/>
+      <c r="B1180" s="20"/>
+      <c r="C1180" s="13"/>
+      <c r="D1180" s="39"/>
+      <c r="E1180" s="9"/>
+      <c r="F1180" s="20"/>
+      <c r="G1180" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1180" s="39"/>
+      <c r="I1180" s="9"/>
+      <c r="J1180" s="11"/>
+      <c r="K1180" s="20"/>
+    </row>
+    <row r="1181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1181" s="40"/>
+      <c r="B1181" s="20"/>
+      <c r="C1181" s="13"/>
+      <c r="D1181" s="39"/>
+      <c r="E1181" s="9"/>
+      <c r="F1181" s="20"/>
+      <c r="G1181" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1181" s="39"/>
+      <c r="I1181" s="9"/>
+      <c r="J1181" s="11"/>
+      <c r="K1181" s="20"/>
+    </row>
+    <row r="1182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1182" s="40"/>
+      <c r="B1182" s="20"/>
+      <c r="C1182" s="13"/>
+      <c r="D1182" s="39"/>
+      <c r="E1182" s="9"/>
+      <c r="F1182" s="20"/>
+      <c r="G1182" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1182" s="39"/>
+      <c r="I1182" s="9"/>
+      <c r="J1182" s="11"/>
+      <c r="K1182" s="20"/>
+    </row>
+    <row r="1183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1183" s="40"/>
+      <c r="B1183" s="20"/>
+      <c r="C1183" s="13"/>
+      <c r="D1183" s="39"/>
+      <c r="E1183" s="9"/>
+      <c r="F1183" s="20"/>
+      <c r="G1183" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1183" s="39"/>
+      <c r="I1183" s="9"/>
+      <c r="J1183" s="11"/>
+      <c r="K1183" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -27078,7 +27197,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>108.38599999999991</v>
+        <v>101.88599999999991</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
